--- a/ocms/src/test/resources/TestData/FaxApplicationFormData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxApplicationFormData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19875" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19875" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Functionality</t>
   </si>
@@ -79,6 +83,24 @@
       ,[LAST_CHANGED_BY] as 'Last Changed By'
       ,Substring(LAST_CHANGED_ON,11,19) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[IVR_FaxForm_Name]</t>
+  </si>
+  <si>
+    <t>OCM Fax Application FormTest</t>
+  </si>
+  <si>
+    <t>Mandarin</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCM </t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -129,6 +151,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -176,7 +201,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,7 +236,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -466,6 +491,43 @@
       </c>
       <c r="E2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +554,7 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -559,7 +621,7 @@
     <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -608,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
